--- a/biology/Zoologie/Coelophysidae/Coelophysidae.xlsx
+++ b/biology/Zoologie/Coelophysidae/Coelophysidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cœlophysidés (nom scientifique: Coelophysidae) appartiennent à la super-famille des Coelophysoidea.
 Les cœlophysidés sont parmi les premiers et les plus primitifs des théropodes carnivores ayant existé sur Terre. Cette famille survécut pendant 50 millions d'années environ, du Trias supérieur au Jurassique inférieur.
